--- a/docs/ExampleClasses.xlsx
+++ b/docs/ExampleClasses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bram Schork\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bramschork/Desktop/CaltechCal/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3208C8D2-ACCF-4276-8EA1-4C7B2D49747B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADBA20A-CEE0-E344-BC0E-2FF610E16CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33420" yWindow="4800" windowWidth="33795" windowHeight="13455" xr2:uid="{0C414EB9-708E-462E-8173-DB1BDD04CC45}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{0C414EB9-708E-462E-8173-DB1BDD04CC45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Course Name</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>M,TR</t>
-  </si>
-  <si>
-    <t>x`</t>
   </si>
 </sst>
 </file>
@@ -578,23 +575,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E219554D-8982-4F3C-910A-FE9C9DDC3342}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -614,7 +611,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -634,7 +631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -651,7 +648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -671,7 +668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -691,7 +688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -711,7 +708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -728,7 +725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -748,7 +745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -767,11 +764,8 @@
       <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="M9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -788,7 +782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
